--- a/StructureDefinition-ext-R5-BodyStructure.inc.bLO.xlsx
+++ b/StructureDefinition-ext-R5-BodyStructure.inc.bLO.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
 *  R5: `BodyStructure.includedStructure.bodyLandmarkOrientation` 0..* `BackboneElement`
 Following are the generation technical comments:
 Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is part of an existing definition because parent element `BodyStructure.includedStructure` requires a component extension (e.g., if this element is used as a content reference).
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -141,7 +141,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:BodyStructure</t>
   </si>
   <si>
     <t>ID</t>
@@ -340,7 +340,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.landmarkDescription` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:landmarkDescription.id</t>
@@ -432,7 +432,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.clockFacePosition` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:clockFacePosition.id</t>
@@ -457,7 +457,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:distanceFromLandmark.id</t>
@@ -479,7 +479,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.device` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:distanceFromLandmark.extension:device.id</t>
@@ -558,7 +558,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:distanceFromLandmark.extension:device.extension:concept.id</t>
@@ -591,7 +591,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -640,7 +640,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.distanceFromLandmark.value` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:distanceFromLandmark.extension:value.id</t>
@@ -681,7 +681,7 @@
   </si>
   <si>
     <t>Element `BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation` is part of an existing definition because parent element `BodyStructure.includedStructure.bodyLandmarkOrientation` requires a cross-version extension.
-Element `BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation` is mapped to FHIR R4 structure `BodyStructure`, but has no target element specified.</t>
+Element `BodyStructure.includedStructure.bodyLandmarkOrientation.surfaceOrientation` is will have a context of BodyStructure based on following the parent source element upwards and mapping to `BodyStructure`.</t>
   </si>
   <si>
     <t>Extension.extension:surfaceOrientation.id</t>
